--- a/data/trans_bre/P45C_R1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 0,0</t>
+          <t>-7,98; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 2,8</t>
+          <t>-5,94; 2,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,23</t>
+          <t>-1,79; 3,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,29</t>
+          <t>-1,16; 2,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,17</t>
+          <t>-1,14; 1,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,96; 241,47</t>
+          <t>-49,91; 277,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-77,18; 391,83</t>
+          <t>-76,45; 282,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,3</t>
+          <t>-1,12; 1,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,14</t>
+          <t>-0,94; 1,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 1,61</t>
+          <t>-0,41; 1,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,87; 154,8</t>
+          <t>-55,38; 121,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,65; 143,44</t>
+          <t>-51,16; 149,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,14; 465,78</t>
+          <t>-47,03; 422,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,75</t>
+          <t>-2,24; 1,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,43</t>
+          <t>-1,79; 0,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,95</t>
+          <t>-1,69; 0,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,0; 98,49</t>
+          <t>-58,58; 78,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,25; 57,42</t>
+          <t>-82,97; 69,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,3; 129,45</t>
+          <t>-72,21; 106,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,58</t>
+          <t>-1,19; 1,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,35</t>
+          <t>0,39; 2,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,07</t>
+          <t>-0,39; 1,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,52; 110,79</t>
+          <t>-43,36; 108,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,66; 642,54</t>
+          <t>22,34; 651,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 387,91</t>
+          <t>-63,16; 391,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,63</t>
+          <t>-0,66; 0,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,92</t>
+          <t>-0,25; 0,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,71</t>
+          <t>-0,33; 0,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 46,72</t>
+          <t>-33,9; 46,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 92,77</t>
+          <t>-17,43; 85,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 98,36</t>
+          <t>-29,15; 104,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P45C_R1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 0,0</t>
+          <t>-6,47; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 2,78</t>
+          <t>-5,66; 2,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,28</t>
+          <t>-1,8; 3,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,29</t>
+          <t>-1,12; 2,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,15</t>
+          <t>-1,1; 1,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,58</t>
+          <t>-0,49; 2,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,91; 277,44</t>
+          <t>-53,36; 218,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,45; 282,88</t>
+          <t>-78,17; 336,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 434,97</t>
+          <t>-33,03; 421,84</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,15</t>
+          <t>-0,99; 1,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,21</t>
+          <t>-1,05; 1,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,45</t>
+          <t>-0,43; 1,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,98</t>
+          <t>-1,41; 1,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,38; 121,63</t>
+          <t>-50,53; 147,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,16; 149,57</t>
+          <t>-53,81; 126,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 422,64</t>
+          <t>-46,92; 436,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-57,06; 95,82</t>
+          <t>-55,6; 92,34</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,43</t>
+          <t>-2,22; 1,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,38</t>
+          <t>-1,75; 0,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,91</t>
+          <t>-1,61; 0,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,54</t>
+          <t>-2,31; 1,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,58; 78,38</t>
+          <t>-56,55; 89,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,97; 69,96</t>
+          <t>-83,62; 83,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,21; 106,97</t>
+          <t>-67,55; 117,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,86; 123,62</t>
+          <t>-66,19; 122,8</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,47</t>
+          <t>-1,28; 1,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,4</t>
+          <t>0,38; 2,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,11</t>
+          <t>-0,29; 1,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; -0,25</t>
+          <t>-2,14; -0,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,36; 108,29</t>
+          <t>-45,38; 112,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,34; 651,65</t>
+          <t>6,84; 648,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-63,16; 391,1</t>
+          <t>-52,44; 405,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-85,71; -14,86</t>
+          <t>-84,86; -14,61</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,62</t>
+          <t>-0,63; 0,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,9</t>
+          <t>-0,25; 0,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,69</t>
+          <t>-0,29; 0,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,34</t>
+          <t>-0,89; 0,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 46,22</t>
+          <t>-31,66; 48,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 85,97</t>
+          <t>-15,74; 84,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 104,17</t>
+          <t>-26,14; 101,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,52; 24,57</t>
+          <t>-42,69; 31,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-65,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-37,03%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>85,52%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,39%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,0</t>
+          <t>-1,09; 0,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 2,66</t>
+          <t>-1,29; 1,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 3,78</t>
+          <t>-0,91; 1,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-0,41; 2,22</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,95; 176,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,74; 327,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,06; 452,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>73,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>10,08%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,51</t>
+          <t>-0,99; 1,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,22</t>
+          <t>-1,05; 1,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,16</t>
+          <t>-0,43; 1,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,4</t>
+          <t>-1,12; 1,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,53; 147,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,36; 218,66</t>
+          <t>-53,81; 126,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,17; 336,1</t>
+          <t>-46,92; 436,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 421,84</t>
+          <t>-50,34; 160,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>-8,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>-43,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>73,33%</t>
+          <t>-18,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>-17,81%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,28</t>
+          <t>-2,22; 1,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,16</t>
+          <t>-1,75; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,49</t>
+          <t>-1,61; 0,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,02</t>
+          <t>-2,8; 1,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,53; 147,08</t>
+          <t>-56,55; 89,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,81; 126,93</t>
+          <t>-83,62; 83,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 436,09</t>
+          <t>-67,55; 117,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 92,34</t>
+          <t>-74,84; 95,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,13%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-43,16%</t>
+          <t>184,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>-64,49%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,58</t>
+          <t>-1,28; 1,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,44</t>
+          <t>0,38; 2,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,91</t>
+          <t>-0,29; 1,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,52</t>
+          <t>-2,07; -0,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,55; 89,51</t>
+          <t>-45,38; 112,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,62; 83,2</t>
+          <t>6,84; 648,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,55; 117,63</t>
+          <t>-52,44; 405,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,19; 122,8</t>
+          <t>-86,12; -18,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>184,25%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-64,11%</t>
+          <t>-11,78%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,49</t>
+          <t>-0,63; 0,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,45</t>
+          <t>-0,25; 0,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,08</t>
+          <t>-0,29; 0,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; -0,25</t>
+          <t>-0,86; 0,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 112,33</t>
+          <t>-31,66; 48,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 648,66</t>
+          <t>-15,74; 84,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-52,44; 405,86</t>
+          <t>-26,14; 101,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-84,86; -14,61</t>
+          <t>-42,83; 40,96</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-0,9%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>23,32%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>22,73%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-14,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 0,65</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 0,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 0,69</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 0,45</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-31,66; 48,2</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-15,74; 84,9</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-26,14; 101,48</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-42,69; 31,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P45C_R1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Habitat-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,15</t>
+          <t>-1,2; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,84</t>
+          <t>-1,16; 1,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,2</t>
+          <t>-0,88; 1,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,22</t>
+          <t>-0,49; 2,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,95; 176,92</t>
+          <t>-46,98; 145,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,74; 327,23</t>
+          <t>-65,97; 371,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,06; 452,03</t>
+          <t>-40,39; 444,8</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,28</t>
+          <t>-1,08; 1,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,16</t>
+          <t>-1,11; 1,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,49</t>
+          <t>-0,5; 1,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,39</t>
+          <t>-1,26; 1,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,53; 147,08</t>
+          <t>-55,09; 145,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,81; 126,93</t>
+          <t>-54,16; 150,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 436,09</t>
+          <t>-48,14; 485,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 160,0</t>
+          <t>-52,78; 186,47</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,58</t>
+          <t>-2,07; 1,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,44</t>
+          <t>-1,68; 0,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,91</t>
+          <t>-1,64; 0,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,16</t>
+          <t>-2,34; 1,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-56,55; 89,51</t>
+          <t>-55,11; 96,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,62; 83,2</t>
+          <t>-83,72; 63,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,55; 117,63</t>
+          <t>-66,7; 110,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-74,84; 95,0</t>
+          <t>-70,19; 96,64</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,49</t>
+          <t>-1,31; 1,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,45</t>
+          <t>0,35; 2,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,08</t>
+          <t>-0,37; 1,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; -0,25</t>
+          <t>-2,27; -0,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 112,33</t>
+          <t>-46,65; 101,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,84; 648,66</t>
+          <t>-0,88; 653,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,44; 405,86</t>
+          <t>-53,68; 430,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-86,12; -18,03</t>
+          <t>-87,59; -15,75</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,65</t>
+          <t>-0,71; 0,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,88</t>
+          <t>-0,26; 0,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,69</t>
+          <t>-0,27; 0,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,49</t>
+          <t>-0,87; 0,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 48,2</t>
+          <t>-35,19; 44,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 84,9</t>
+          <t>-16,58; 86,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 101,48</t>
+          <t>-25,51; 100,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 40,96</t>
+          <t>-41,93; 37,47</t>
         </is>
       </c>
     </row>
